--- a/工具集合/命令行工具/配置数据生成工具/配置数据生成工具/bin/Debug/netcoreapp2.0/Skill.xlsx
+++ b/工具集合/命令行工具/配置数据生成工具/配置数据生成工具/bin/Debug/netcoreapp2.0/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25770" windowHeight="11145"/>
+    <workbookView windowWidth="27765" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,43 +38,50 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>ShuiMo:</t>
+          <t>1.范围类：(无位置，无方向，无目标)
+2.射击类：(无位置，有方向，无目标)
+3.投掷类：(有位置，无方向，无目标)
+4.追踪类：(无位置，无方向，有目标)</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>0表示不限距离</t>
         </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">释放方式
-</t>
-        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-1.范围类：(无位置，无方向，无目标)
-2.射击类：(无位置，有方向，无目标)
-3.投掷类：(有位置，无方向，无目标)
-4.追踪类：(无位置，无方向，有目标)</t>
+          <t>0表示不限制距离</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>A:动作镜头ID, E:指定效果ID, D:持续时间</t>
         </r>
       </text>
     </comment>
@@ -83,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>int</t>
   </si>
@@ -97,6 +104,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>TID</t>
   </si>
   <si>
@@ -109,10 +119,10 @@
     <t>CastMode</t>
   </si>
   <si>
-    <t>CastDistanceMin</t>
-  </si>
-  <si>
-    <t>CastDistanceMax</t>
+    <t>CastMinDist</t>
+  </si>
+  <si>
+    <t>CastDistMax</t>
   </si>
   <si>
     <t>AffectRange</t>
@@ -127,7 +137,10 @@
     <t>Compute</t>
   </si>
   <si>
-    <t>CDTime</t>
+    <t>TimeCD</t>
+  </si>
+  <si>
+    <t>ActionShots</t>
   </si>
   <si>
     <t>名称</t>
@@ -148,7 +161,7 @@
     <t>影响范围</t>
   </si>
   <si>
-    <t xml:space="preserve"> 条件状态</t>
+    <t>条件状态</t>
   </si>
   <si>
     <t>影响状态</t>
@@ -160,10 +173,10 @@
     <t>倒计时</t>
   </si>
   <si>
+    <t>行为镜头组</t>
+  </si>
+  <si>
     <t>待机</t>
-  </si>
-  <si>
-    <t>持弓</t>
   </si>
 </sst>
 </file>
@@ -184,7 +197,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -339,12 +358,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -657,148 +670,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -806,13 +819,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1134,30 +1147,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="$A6:$XFD9"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="19.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1666666666667" style="1" customWidth="1"/>
-    <col min="9" max="10" width="19.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
+    <col min="6" max="8" width="11.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="1" customWidth="1"/>
+    <col min="13" max="16383" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1191,75 +1206,84 @@
       <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1267,11 +1291,9 @@
         <v>1000000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -1287,26 +1309,6 @@
       <c r="J4" s="2"/>
       <c r="K4" s="3">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>1000010</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2000000</v>
       </c>
     </row>
   </sheetData>
